--- a/docs/userapi/APIFormat.xlsx
+++ b/docs/userapi/APIFormat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8480" yWindow="1420" windowWidth="25600" windowHeight="16060" tabRatio="640" activeTab="1"/>
+    <workbookView xWindow="8480" yWindow="1420" windowWidth="25600" windowHeight="16060" tabRatio="640"/>
   </bookViews>
   <sheets>
     <sheet name="API List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="96">
   <si>
     <t>No</t>
   </si>
@@ -261,9 +261,6 @@
   </si>
   <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>username</t>
   </si>
   <si>
     <t>2.</t>
@@ -777,21 +774,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -820,6 +802,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1711,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1780,10 +1777,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>5</v>
@@ -1912,7 +1909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1995,15 +1992,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="61"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2016,15 +2013,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="61"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2037,15 +2034,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="61"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2058,15 +2055,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="61"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2131,19 +2128,19 @@
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2172,11 +2169,11 @@
       <c r="I12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2188,7 +2185,7 @@
         <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>52</v>
@@ -2205,11 +2202,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="65" t="s">
+      <c r="J13" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2238,11 +2235,11 @@
       <c r="I14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2266,11 +2263,11 @@
     </row>
     <row r="16" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -2285,12 +2282,12 @@
     </row>
     <row r="17" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="22" t="s">
         <v>21</v>
       </c>
@@ -2479,10 +2476,10 @@
       <c r="A23" s="1"/>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="61"/>
+      <c r="E23" s="71"/>
       <c r="F23" s="14" t="s">
         <v>57</v>
       </c>
@@ -2646,11 +2643,11 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2665,12 +2662,12 @@
     </row>
     <row r="33" spans="1:15" ht="20" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="68"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="22" t="s">
         <v>21</v>
       </c>
@@ -2874,11 +2871,11 @@
     </row>
     <row r="40" spans="1:15" ht="20" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2896,10 +2893,10 @@
       <c r="B41" s="38">
         <v>200</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="61"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2917,10 +2914,10 @@
       <c r="B42" s="38">
         <v>401</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="61"/>
+      <c r="D42" s="71"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2938,10 +2935,10 @@
       <c r="B43" s="45">
         <v>402</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="61"/>
+      <c r="D43" s="71"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2959,10 +2956,10 @@
       <c r="B44" s="39">
         <v>500</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="63"/>
+      <c r="D44" s="73"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -3878,6 +3875,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B40:D40"/>
@@ -3889,14 +3894,6 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -3918,7 +3915,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3944,7 +3941,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>67</v>
@@ -3963,7 +3960,7 @@
     <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="1"/>
@@ -3981,15 +3978,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="61"/>
+      <c r="C4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -3999,15 +3996,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="61"/>
+      <c r="C5" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4017,15 +4014,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="61"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4035,15 +4032,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="61"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -4065,7 +4062,7 @@
     <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
@@ -4096,19 +4093,19 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
@@ -4134,11 +4131,11 @@
       <c r="I12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="1:12" ht="18">
       <c r="A13" s="1"/>
@@ -4147,7 +4144,7 @@
         <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>52</v>
@@ -4164,11 +4161,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="65" t="s">
+      <c r="J13" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
     </row>
     <row r="14" spans="1:12" ht="18">
       <c r="A14" s="1"/>
@@ -4194,11 +4191,11 @@
       <c r="I14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
     </row>
     <row r="15" spans="1:12" ht="18">
       <c r="A15" s="1"/>
@@ -4216,11 +4213,11 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="11"/>
-      <c r="B16" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
+      <c r="B16" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -4232,12 +4229,12 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="21"/>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="51" t="s">
         <v>21</v>
       </c>
@@ -4520,11 +4517,11 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>
-      <c r="B31" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
+      <c r="B31" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -4535,12 +4532,12 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1"/>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="51" t="s">
         <v>21</v>
       </c>
@@ -4674,7 +4671,7 @@
         <v>3</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18">
@@ -4723,11 +4720,11 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1"/>
-      <c r="B39" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
+      <c r="B39" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -4742,10 +4739,10 @@
       <c r="B40" s="50">
         <v>200</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="61"/>
+      <c r="D40" s="71"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -4760,10 +4757,10 @@
       <c r="B41" s="50">
         <v>401</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="61"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -4778,10 +4775,10 @@
       <c r="B42" s="50">
         <v>402</v>
       </c>
-      <c r="C42" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="61"/>
+      <c r="C42" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="71"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -4796,10 +4793,10 @@
       <c r="B43" s="39">
         <v>500</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="63"/>
+      <c r="D43" s="73"/>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
@@ -4810,6 +4807,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
@@ -4822,12 +4825,6 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1"/>
@@ -4887,10 +4884,10 @@
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1">
       <c r="A2" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4909,7 +4906,7 @@
     <row r="3" spans="1:15" ht="20" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="1"/>
@@ -4930,15 +4927,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="61"/>
+      <c r="C4" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -4951,15 +4948,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="61"/>
+      <c r="C5" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4972,15 +4969,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="61"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4993,15 +4990,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="61"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5029,7 +5026,7 @@
     <row r="9" spans="1:15" ht="20" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
@@ -5066,19 +5063,19 @@
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -5107,11 +5104,11 @@
       <c r="I12" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -5120,10 +5117,10 @@
       <c r="A13" s="1"/>
       <c r="B13" s="41"/>
       <c r="C13" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>52</v>
@@ -5138,13 +5135,13 @@
         <v>254</v>
       </c>
       <c r="I13" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -5161,9 +5158,9 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -5187,11 +5184,11 @@
     </row>
     <row r="16" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
+      <c r="B16" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -5206,12 +5203,12 @@
     </row>
     <row r="17" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="57" t="s">
         <v>21</v>
       </c>
@@ -5536,11 +5533,11 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
+      <c r="B31" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -5555,12 +5552,12 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="57" t="s">
         <v>21</v>
       </c>
@@ -5706,7 +5703,7 @@
         <v>3</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -5764,11 +5761,11 @@
     </row>
     <row r="39" spans="1:15" ht="20" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
+      <c r="B39" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -5786,10 +5783,10 @@
       <c r="B40" s="56">
         <v>200</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="61"/>
+      <c r="D40" s="71"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -5807,10 +5804,10 @@
       <c r="B41" s="56">
         <v>402</v>
       </c>
-      <c r="C41" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="61"/>
+      <c r="C41" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="71"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -6726,22 +6723,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1" display="foo@mulodo.com"/>

--- a/docs/userapi/APIFormat.xlsx
+++ b/docs/userapi/APIFormat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8480" yWindow="1420" windowWidth="25600" windowHeight="16060" tabRatio="640"/>
+    <workbookView xWindow="8480" yWindow="1420" windowWidth="25600" windowHeight="16060" tabRatio="640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="API List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="96">
   <si>
     <t>No</t>
   </si>
@@ -774,6 +774,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -802,21 +817,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1233,13 +1233,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>540026</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>167311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>629477</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>110435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1708,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1992,15 +1992,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="71"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="61"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2013,15 +2013,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="71"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="61"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2034,15 +2034,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="71"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2055,15 +2055,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="71"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="61"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2128,19 +2128,19 @@
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2169,11 +2169,11 @@
       <c r="I12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2202,11 +2202,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="60" t="s">
+      <c r="J13" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2235,11 +2235,11 @@
       <c r="I14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="60" t="s">
+      <c r="J14" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2263,11 +2263,11 @@
     </row>
     <row r="16" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -2282,12 +2282,12 @@
     </row>
     <row r="17" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="22" t="s">
         <v>21</v>
       </c>
@@ -2476,10 +2476,10 @@
       <c r="A23" s="1"/>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="71"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="14" t="s">
         <v>57</v>
       </c>
@@ -2643,11 +2643,11 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2662,12 +2662,12 @@
     </row>
     <row r="33" spans="1:15" ht="20" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="63"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="22" t="s">
         <v>21</v>
       </c>
@@ -2871,11 +2871,11 @@
     </row>
     <row r="40" spans="1:15" ht="20" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2893,10 +2893,10 @@
       <c r="B41" s="38">
         <v>200</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="71"/>
+      <c r="D41" s="61"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2914,10 +2914,10 @@
       <c r="B42" s="38">
         <v>401</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C42" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="71"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2935,10 +2935,10 @@
       <c r="B43" s="45">
         <v>402</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="71"/>
+      <c r="D43" s="61"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2956,10 +2956,10 @@
       <c r="B44" s="39">
         <v>500</v>
       </c>
-      <c r="C44" s="72" t="s">
+      <c r="C44" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="73"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -3875,14 +3875,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C43:D43"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B40:D40"/>
@@ -3894,6 +3886,14 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -3978,15 +3978,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="71"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="61"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -3996,15 +3996,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="71"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="61"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4014,15 +4014,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="71"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4032,15 +4032,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="71"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="61"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -4093,19 +4093,19 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
@@ -4131,11 +4131,11 @@
       <c r="I12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
     </row>
     <row r="13" spans="1:12" ht="18">
       <c r="A13" s="1"/>
@@ -4161,11 +4161,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="60" t="s">
+      <c r="J13" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
     </row>
     <row r="14" spans="1:12" ht="18">
       <c r="A14" s="1"/>
@@ -4191,11 +4191,11 @@
       <c r="I14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="60" t="s">
+      <c r="J14" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
     </row>
     <row r="15" spans="1:12" ht="18">
       <c r="A15" s="1"/>
@@ -4213,11 +4213,11 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="11"/>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -4229,12 +4229,12 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="21"/>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="51" t="s">
         <v>21</v>
       </c>
@@ -4517,11 +4517,11 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -4532,12 +4532,12 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1"/>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="51" t="s">
         <v>21</v>
       </c>
@@ -4720,11 +4720,11 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1"/>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -4739,10 +4739,10 @@
       <c r="B40" s="50">
         <v>200</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="71"/>
+      <c r="D40" s="61"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -4757,10 +4757,10 @@
       <c r="B41" s="50">
         <v>401</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="71"/>
+      <c r="D41" s="61"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -4775,10 +4775,10 @@
       <c r="B42" s="50">
         <v>402</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C42" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="71"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -4793,10 +4793,10 @@
       <c r="B43" s="39">
         <v>500</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="73"/>
+      <c r="D43" s="63"/>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
@@ -4807,12 +4807,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
@@ -4825,6 +4819,12 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1"/>
@@ -4842,10 +4842,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4927,15 +4927,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="71"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="61"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -4948,15 +4948,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="71"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="61"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4969,15 +4969,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="71"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4990,15 +4990,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="71"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="61"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5063,19 +5063,19 @@
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -5104,11 +5104,11 @@
       <c r="I12" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -5137,113 +5137,125 @@
       <c r="I13" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="60" t="s">
+      <c r="J13" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="20" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="20" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="67" t="s">
+    <row r="15" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="72" t="s">
         <v>81</v>
+      </c>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="66" t="s">
+        <v>14</v>
       </c>
       <c r="C16" s="67"/>
       <c r="D16" s="67"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="57" t="s">
+      <c r="E16" s="68"/>
+      <c r="F16" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G16" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H16" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I16" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J16" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="57" t="s">
+      <c r="K16" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="57" t="s">
+      <c r="L16" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" spans="1:15" ht="20" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" ht="20" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="26"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="5" t="s">
-        <v>41</v>
+      <c r="F18" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>41</v>
@@ -5251,8 +5263,8 @@
       <c r="H18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>41</v>
+      <c r="I18" s="5">
+        <v>1</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>41</v>
@@ -5268,13 +5280,13 @@
     <row r="19" spans="1:15" ht="20" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="E19" s="24"/>
       <c r="F19" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>41</v>
@@ -5291,7 +5303,7 @@
       <c r="K19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -5300,43 +5312,45 @@
       <c r="A20" s="1"/>
       <c r="B20" s="13"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="24"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="F20" s="14" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="I20" s="5">
         <v>1</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="28"/>
+      <c r="J20" s="5">
+        <v>3</v>
+      </c>
+      <c r="K20" s="5">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" ht="20" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>25</v>
@@ -5348,13 +5362,13 @@
         <v>1</v>
       </c>
       <c r="J21" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -5362,40 +5376,26 @@
     </row>
     <row r="22" spans="1:15" ht="20" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="5">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="20" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -5412,9 +5412,7 @@
     </row>
     <row r="24" spans="1:15" ht="20" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -5516,9 +5514,11 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -5533,66 +5533,78 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="B31" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="57" t="s">
+        <v>20</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="57" t="s">
-        <v>20</v>
-      </c>
+      <c r="B32" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="3"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15" ht="20" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="26"/>
       <c r="E33" s="24"/>
-      <c r="F33" s="5" t="s">
-        <v>41</v>
+      <c r="F33" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>41</v>
@@ -5617,13 +5629,13 @@
     <row r="34" spans="1:15" ht="20" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="E34" s="24"/>
       <c r="F34" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>41</v>
@@ -5640,7 +5652,7 @@
       <c r="K34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L34" s="3"/>
+      <c r="L34" s="28"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -5649,43 +5661,45 @@
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="27"/>
-      <c r="D35" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="24"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="F35" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L35" s="28"/>
+        <v>24</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5">
+        <v>3</v>
+      </c>
+      <c r="K35" s="5">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" ht="20" customHeight="1">
+    <row r="36" spans="1:15" s="37" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="4"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>25</v>
@@ -5697,56 +5711,42 @@
         <v>1</v>
       </c>
       <c r="J36" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K36" s="5">
-        <v>3</v>
+        <v>254</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="1:15" s="37" customFormat="1" ht="20" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" ht="20" customHeight="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="5">
-        <v>1</v>
-      </c>
-      <c r="J37" s="5">
-        <v>0</v>
-      </c>
-      <c r="K37" s="5">
-        <v>254</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15" ht="20" customHeight="1">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -5761,11 +5761,13 @@
     </row>
     <row r="39" spans="1:15" ht="20" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
+      <c r="B39" s="56">
+        <v>200</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="61"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -5781,12 +5783,12 @@
     <row r="40" spans="1:15" ht="20" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="56">
-        <v>200</v>
-      </c>
-      <c r="C40" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="71"/>
+        <v>402</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="61"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -5801,13 +5803,9 @@
     </row>
     <row r="41" spans="1:15" ht="20" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="56">
-        <v>402</v>
-      </c>
-      <c r="C41" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="71"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -5820,73 +5818,73 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" ht="20" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="1:15" s="35" customFormat="1" ht="20" customHeight="1">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-    </row>
-    <row r="44" spans="1:15" ht="20" customHeight="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="1:15" s="35" customFormat="1" ht="20" customHeight="1">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
+    <row r="42" spans="1:15" s="35" customFormat="1" ht="20" customHeight="1">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+    </row>
+    <row r="43" spans="1:15" ht="20" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" s="35" customFormat="1" ht="20" customHeight="1">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+    </row>
+    <row r="45" spans="1:15" ht="20" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15" ht="20" customHeight="1">
       <c r="A46" s="1"/>
@@ -6688,57 +6686,39 @@
       <c r="O92" s="1"/>
     </row>
     <row r="93" spans="1:15" ht="20" customHeight="1">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-    </row>
-    <row r="94" spans="1:15" ht="20" customHeight="1">
-      <c r="A94" s="36"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="36"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:E17"/>
+  <mergeCells count="15">
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1" display="foo@mulodo.com"/>
